--- a/500all/speech_level/speeches_CHRG-114hhrg20832.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20832.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order. And without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing entitled ``The Space Leadership Preservation Act and the Need for Stability at NASA.''    I'll recognize myself for an opening statement and then the Ranking Minority Member, Ms. Eddie Bernice Johnson from Texas.    And let me say just looking out on the audience today I'm glad to see so much interest in this subject. And we have actually two panels today. We're going to start off with Congressman John Culberson, and then we'll go to a panel of three witnesses after that.    Presidential transitions often have provided a challenge to NASA programs that require continuity and budget stability. But few have been as rocky as the Administration change we experienced seven years ago.    Even before he was elected President, then-candidate Barack Obama planned to delay the Constellation program being built to take humans to deep space destinations. One of the Obama Administration's first acts, in fact, was to cancel this NASA program outright.    These jarring decisions have been accompanied by repeated budget proposals that continue to cut key programs designed to take humans to deep space destinations like the Moon and Mars. The most recent proposal released just a few weeks ago would shrink the Space Launch System and Orion crew vehicle by more than $800 million. Even worse, the entire budget depends on make-believe budget gimmicks.    This regrettable approach continues to make a Mars mission all but impossible. It is not the approach of an administration that is serious about maintaining America's leadership in space.    The recent report from the National Academies of Science titled ``Pathways to Exploration: Rationales and Approaches for a U.S. Program of Human Space Exploration,'' stated that: ``The human spaceflight program in the United States had experienced considerable programmatic turbulence, with frequent and dramatic changes in program goals and mission plans in response to changes in national policies. The changes had a high cost in program resources and opportunities, and imposed what many feared was an intolerable burden on already-constrained human exploration budgets.''    The Aerospace Safety Advisory Panel, an advisory body established by Congress to report to NASA and Congress on safety issues that affect NASA, stated in their recent report in January that ``NASA faces another challenge that has historically led to disruption and inefficiency and arguably has impact on safety and good systems engineering. This is the challenge of starting over with new programs and directions following administration change. As in prior reports, the ASAP urges constancy of purpose. Failing to stay the course with current programs of record will make it an even longer, costlier, and potentially less safe trip to Mars.''    These facts are not lost on this committee. The most recent NASA Authorization Act from 2010 contains several provisions that remain the ``law of the land'' and continue to guide NASA activities.    The Act notes that the ``commitment to human exploration goals is essential for providing the necessary long-term focus and programmatic consistency and robustness of the United States civilian space program.''    The Act states that ``It is in the United States' national interest to maintain a government-operated space transportation system for crew and cargo delivery to space.''    The Act directs that ``The United States must develop as rapidly as possible replacement vehicles capable of providing both human and cargo launch capability to low-Earth orbit and to destinations beyond low-Earth orbit.''    The 2005, 2008, and 2010 NASA Authorization Acts are consistent in their direction to NASA. NASA needs the same certainty from the executive branch that it receives from Congress. Today, we are discussing how to provide that stability to NASA once again as we look toward a presidential transition in less than a year.    My friend and Texas colleague, Representative John Culberson, has a bill that seeks to do just that. I thank Representative Culberson for his leadership on this issue, and I am a cosponsor of his legislation. We share the goal of providing NASA with long-term, consistent support, and it is great to have him here today to discuss his bill.    One of the first hearings that this committee held during my chairmanship was, in fact, on this very topic.    I look forward to hearing from our witnesses today how we can ensure stability in our space program through the next presidential transition.    Dr. Michael Griffin provides a unique perspective as the last NASA Administrator to serve before a presidential transition. Colonel Eileen Collins not only has served as a pilot and commander of space shuttle missions, but also as a member of the NASA Advisory Council during the last transition. And Ms. Cristina Chaplain brings the Government Accountability Office's insightful perspective.    We look forward to hearing their testimony and learning how we can ensure that NASA remains on the forefront of space exploration through the next presidential transition.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman, and good morning. I'd like to start by welcoming our witnesses.     NASA is a cornerstone of our nation's R&amp;D enterprise, a source of inspiration to our young people, and a worldwide symbol of America's technological prowess and dedication to the peaceful exploration of space. We want it to succeed.    Today's hearing is entitled ``The Space Leadership Preservation Act and the Need for Stability at NASA.'' While I have concerns about the legislation itself, I wholeheartedly agree with the premise that we want to preserve America's leadership in space, and that NASA will need stability if it is to maintain that leadership role. I am heartened that Chairman Culberson has long felt the same way.    That said, I regret that the legislation being discussed today, while obviously well-intentioned, unfortunately is not likely to fix the fundamental causes of instability at NASA. Let me give just a few examples of my concern with what the bill does and doesn't do.    First, the bill would establish a Board of Directors apparently modeled after the National Science Foundation's National Science Board. Of course, NSF and NASA are quite different agencies with quite different missions. So the applicability of the NSF model to NASA is unclear.    But there are other differences that also need to be noted. As we know, the members of the NSB are all nominated by the President. The Board of Directors established in this bill, on the other hand, would have a majority of its members named by Congress using a formula that injects partisan politics into a board that ostensibly is supposed to insulate NASA from politics.    In addition, the Board would be tasked with preparing the budget for NASA in parallel with NASA's own budget preparations process. This seems to be a prescription for wasteful duplication at best, with the potential for serious confusion and instability as the more likely outcomes.    It is unclear to me how this small group of individuals with no agency management responsibilities or accountability is supposed to develop a detailed budget for a $19 billion agency without having to set up an unwieldy competing administrative infrastructure of its own. This is an approach that will not lead to a good outcome.    Instead, we should let the dedicated men and women at NASA who are tasked with carrying out NASA's challenging programs be the ones to develop its budget requests. It should not be done by a group of individuals who, though may be talented, will not have any accountability for delivering results under the budget they may propose. If we're concerned that OMB is adjusting NASA's budget request in unhealthy ways, then we in Congress already have sufficient oversight and budgetary tools at our disposal to correct that situation.    Next, the bill would establish a fixed ten-year term for the NASA Administrator. I frankly don't know what problem this provision is intended to correct. A mission agency benefits from having an administrator chosen by the President or she--that he or she serves. Having a carryover administrator from a previous President's term will do nothing to ensure stability if the President wishes to pursue a different policy agenda from his or her predecessor and doesn't see the Administrator as being part of his or her team.    In addition, as history shows, having a fixed term for an agency head means little in practice. Only 5 of the last 15 NSF Directors served out a full six-year term, and similar instability has been the norm for FAA despite the five-year term for its Administrators.    I could go on, but the reality is that we don't need to set up a new bureaucracy outside of NASA or alter the appointment process for its leaders. If we're interested in ensuring stability at NASA, it is already in our power as Congress to do so. We are the ones who ultimately determine NASA's budget. We can provide the necessary budgetary stability to NASA or we can destabilize it with appropriation delays, continuing resolutions, and shutdowns. The choice is ours. It's right here in this Committee.    In addition, we have the ability to set a stable direction for NASA, and we did just that in the 2015 NASA reauthorization bill that passed the House. We see that Mars should be the goal of our human exploration program. The President has agreed, though that was determined before he became President. We should take that consensus and build on it rather than having an unelected board put forth its own exploration vision every four years.    The two Congressional actions that I have just described, one budgetary and one policy-oriented, will do more to maintain space leadership and ensure stability at NASA than anything we might do in this bill that we are discussing today.    So in closing, I again want to welcome our witnesses. I appreciate your service, and I look forward to your testimony. Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Culberson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Culberson. Thank you.</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman.    Good morning. It's a great pleasure to be here this morning with our esteemed colleague and our first witness, as we just heard, Chairman John Culberson.    And I represent the 36th District of Texas, which is the home of the Johnson Space Center. I've had the privilege of visiting JSC on a number of occasions. Every time I stop by there, I am reminded of the truly extraordinary accomplishments that we have made as a nation. I am also inspired by the potential that exists at NASA to continue expanding our horizons deeper into space. It's truly an awe-inspiring mission that is pursued with dedication by NASA's personnel and its contractors.    Space exploration and science captures the American people's interests, it inspires us to pursue extraordinary goals, and keeps us on the forefront of scientific achievement. It is a challenging endeavor that distinguishes the United States as a global leader. It supports innovation and economic growth, and inspires the next generation to build, explore, and discover.    The missions of NASA that we should be focused on are complex, they are expensive, and they are long term. Unfortunately, the last eight years have been characterized by turmoil, and by upheaval and uncertainty. If there's anything that we have learned from this experience, it is that our national space program can ill-afford to change our program of record every time that there is a new President. Space exploration requires stability and unwavering dedication.    Chairman Culberson, a strong supporter and good friend of our nation's space program, has been vocal, as you heard this morning, about how the billions of dollars have been dedicated, directed, and redirected over the years with fits and starts of various NASA projects. Your pursuit of a solution to this challenge, Representative Culberson, is greatly appreciated by me and many of our colleagues.    Space exploration is a very worthwhile investment for the taxpayer and for the Nation. It inspires the next generation of explorers to pursue science, technology, engineering, and math; it advances U.S. soft power and international relations; it reinforces our aerospace industrial base; increases economic competitiveness; and advances our national security interests.    There's a great deal of promise in the future of space, but if we fail to provide stability for NASA's space exploration programs, we may well lose our leadership in space. Make no mistake, other nations are nipping at our heels and we can ill-afford to rest on our laurels. Losing U.S. leadership in space will significantly undermine our national interests, erode our industrial base, undermine our international influence, and cause the loss of a skilled workforce and will jeopardize our national security. Our colleague Bill Posey often says that the Chinese are going to the moon, and they're not going there just to collect rocks, and I couldn't agree more.    Mr. Culberson's Space Leadership Preservation Act offers us an opportunity to review many of the challenges facing our nation's space agency. There may be many ways to achieve the goals of this legislation, and so I have an open mind. Presidential elections offer both challenges and opportunities, and that's why it is imperative that our colleagues in the Senate consider the bipartisan NASA Authorization Act that passes via unanimous consent over a year ago. They must bring this up. NASA would be well-served by the guidance that legislation provides. It would provide stability of purpose in an uncertain time. All that they would have to do is update the funding levels to match the recently passed Omnibus Appropriations levels for NASA.    And I appreciate hearing the testimony of Representative Culberson and looking forward to hearing our other distinguished witnesses this morning, and I thank them for appearing here.    And with that, I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. I'm sorry, Mr. Chairman. This is my third hearing since 9:30.    From what I understand, you've already introduced----</t>
   </si>
   <si>
@@ -130,27 +115,18 @@
     <t xml:space="preserve">    Chairman Smith. In that case, we will proceed, and, Dr. Griffin, you're welcome to start your testimony.</t>
   </si>
   <si>
-    <t>Griffin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffin. Thank you, Chairman Smith, Chairman Culberson, Mr. Brooks, for the kind introduction and recognition. I'm--and thanking Ranking Member Johnson and Members of the Committee for appearing here today and allowing me to appear to discuss the future of our nation's space program.    With the inauguration of a new Administration and Congress, we will have both the need and the opportunity to restore American preeminence in space, and after that, to ensure stability in the policy and programs we create. We should begin now, and in that context, it may be of some value to review some of our recent history. Some of that has been summarized by Chairman Culberson in the earlier panel, and I will not repeat it.    I will make the point that, following the loss of Space Shuttle Columbia, the Columbia Accident Investigation Board identified as one of the root causes of that failure the lack of a clearly identifiable long-term strategic plan for NASA. As has been stated, by 2009 that issue had been remedied, and we were executing a powerful and compelling new plan. That plan respected the need to complete existing commitments, the constraints imposed by the geography of the solar system, and the existing state of our technology and operational experience. The plan respected the need of our international partners for a roadmap for human spaceflight beyond the International Space Station, while offering critical challenges to which they could make critical contributions. Finally, being achievable with only incremental real dollar budget growth, it respected realistic budget constraints. It was a good plan.    This strategy received nearly unanimous bipartisan endorsement by successive Congresses, Republican and Democratic, in the NASA Authorization Acts of 2005 and 2008, clearing the path for a period of unimpeded progress. And by early 2009, the shuttle was flying regularly, the ISS was nearing completion, a new crew transportation system was in work, and the first two contracts for commercial cargo delivery to the International Space Station had been signed. Some 14 nations had embraced partnership with the United States to return to the moon and were orienting their own national space policies to that end.    But by early 2010, just a year later, this strategy was in disarray. Human lunar return had been abandoned, as had NASA's development of a new crew transportation system. There was no plan beyond ISS save for a nebulous commitment to visit an asteroid sometime in the 2020s. Inasmuch as this--such a mission is inherently a one-off exercise with limited opportunities for international involvement, our existing space station partners rightly felt abandoned and potential new partners saw very little merit in working with the United States.    The nations that were eager to participate in space exploration in 2009 still wish to do so today, but a leader is needed for such an endeavor, and for now, the only possible leader is the United States. If we do not choose to engage, then eventually other nations will, and we're unlikely to be pleased with that result. This is not a future that the United States should allow to come to pass.    Our space policy is bankrupt. While I certainly support the stability for NASA that is the topic of this hearing today, I would not want that desire to prevent us from correcting the problems that have been created over the last seven years. To quote my friend and colleague Jim Albaugh, the former Boeing commercial aircraft CEO, the current Administration's plan for space offers ``no dream, no vision, no plan, no budget, and no remorse.'' We can fix this and we must.    Thank you. I would be happy to answer any of your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Griffin.    Colonel Collins.</t>
   </si>
   <si>
-    <t>Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Collins. Thank you, Chairman Smith and Ranking Member Johnson and Committee Members. It is a pleasure for me to be here today to talk about the future of our great country and to share my perspective as a former space shuttle commander. I have a passion for exploration, and I'm firmly committed to the future successes of our country's space program.    A few words about my background, I'm a former Air Force test pilot, a graduate of the Air Force Test Pilot School, and a veteran of four spaceflights. I served for five years on the NASA Advisory Council from 2007 to 2011. I currently serve on the National Academy of Sciences' Aerospace Science and Engineering Board, and although I serve on this and many other boards and advisory panels, I want to say that I'm here today representing myself and not any of these other panels.    So in my opening comments I have three general points. The first one is I want to thank you for asking the opinion of the operators of our space systems or the guys in the trenches so to speak. I hope I can give you an operational perspective from the astronaut's point of view.    Secondly, I can't emphasize enough the love that Americans have for our space program. As a speaker and as an advisor, I routinely meet people from all around the United States. They are inspired by human spaceflight and they are very excited about scientific discoveries. They see the space program as a bright future, where we can imagine possibilities both human and technical.    And frankly, the brand of NASA is easy to love. For example, my story began in 4th grade when I read a magazine article about the Gemini astronauts. Since then, I've wanted to fly in space and be part of this great adventure. It led me to study of mathematics and a career in flying.    Today, I see people of all ages light up when the subject of space travel is discussed. In my opinion, the history of American exploration is right up there with baseball, apple pie, and the Fourth of July. And I might add that the recent announcement for new astronauts brought a record number of applicants, 18,300 applicants, which is more than twice as many as the previous record.    Now, my third point concerns the purpose and stability of the human spaceflight program. Obviously, the success of any decades-long program is related to the long-term commitment from the top. So first, a mission is defined. Next, a strategy is set. And then, an operational plan is written. Now, that operational plan includes a test plan, and a test plan includes a build-up approach. This is one of the fundamentals that we learn when we go--and that we teach when we go through the test pilot schools.    As we run a test program, occasionally, technical changes will need to be made because we learn as we go. Sometimes, we make mistakes when we do things for the first time. But necessary technical changes will not affect the originally defined mission. That must stay stable so that the team members can stay focused on the mission.    I understand the long-range vision for U.S. human--for the U.S. human spaceflight program is landing a human on Mars. I support that mission. And I sincerely hope that that first person is an American. We can do it, and frankly, we can afford it. Those who say we can't are just putting their priorities elsewhere.    When asked about how to best prepare for a successful Mars mission, as a crewmember, I certainly would like to see the hardware tested on the moon's surface first. This is part of a test plan's build-up approach. Policy leaders are asking astronauts to risk their lives on space journeys, and it is our experience that testing in similar environments like the moon will minimize risk.    When the Constellation program was cancelled in 2010, some people said, ``why go back to the moon? We've already been there.'' Imagine the year 1806, when Lewis and Clark returned from their 2-1/2 year journey of exploring the western continent. They and their team members are declared national heroes. But then no one else goes back because we had already been there. Of course, this is almost inconceivable. It would diminish the entire reason for going in the first place.    I was a member of the NASA Advisory Council when Constellation was cancelled. I was shocked, as were my colleagues, first, because it was so unexpected, and second, because the timing, so close to the end of the space shuttle program, left NASA with no options.    The legislation that we're discussing here today has ideas that will certainly address this problem. I'm not wedded to any specific proposal myself, but the problem does need to be addressed, especially given the billions of dollars wasted as a result and the lost time and motivations of engineers and astronauts.    I believe program cancellation decisions that are made by bureaucracies, behind closed doors, without input by the people, are divisive, damaging, cowardly, and many times more expensive in the long run. As a shuttle commander, I would never make a huge decision without input from all the experts, even the ones I do not agree with.    So what will keep us from having surprises like this set us back years? A continuity of purpose over many years and political administrations. I know there are ways to do this through policy, organizational structure, and strong leadership. And finally, strategic stability will give the teams efficiency and a focus that we saw in the Apollo program. Apollo happened by the end of the decade because people knew exactly what the mission was and when it should happen. They believed in it. And of course it was properly funded. There was not much division over what the mission was, and NASA was given the responsibility to figure out how to do it, and the result was dedication, passion, and success. And I know we can do this again. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Colonel Collins.    And, Ms. Chaplain.</t>
   </si>
   <si>
-    <t>Chaplain</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chaplain. Chairman Smith, Ranking Member Johnson, and Members of the Committee, thank you for inviting me to discuss the Space Leadership Preservation Act. You've heard the policy and strategic perspective, as well as the operational perspective, and I'm here today to discuss the acquisition management perspective.    As you know, NASA's acquisition management has been on GAO's high-risk list for more than two decades because of persistent cost growth and schedule slippage. In recent years, however, NASA has made progress in reducing this risk. Specifically, in 2012, shortly after NASA re-baselined its largest project, the James Webb telescope, development cost growth averaged about 46 percent. This year, we plan to report that it is at 17 percent. And when James Webb is excluded, cost growth is just 1.3 percent, though that number is affected by the addition of Space Launch System and Orion to the portfolio.    NASA has made positive changes in the past five years that have helped contribute to the improved performance of its projects. These include better cost and schedule estimating, use of management reserves, and program monitoring. Moreover, many projects are able to demonstrate that they have closed gaps in knowledge about technology and design at key junctures in their development process.    This does not mean NASA's acquisition problems are solved. Several projects in the portfolio are experiencing significant problems that are not just the result of inherent technical risk. Programs still struggle with underestimating complexity and managing and overseeing contractors. Moreover, the most complex and costly development efforts, the human spaceflight projects and James Webb, are entering their most risky phases of development. Before we can take NASA off our high-risk list, we need to see how these projects perform in times when they are most tested.    Further, while initial estimates are more realistic, we are finding larger projects do not plan to update their estimates on a regular basis and that estimates are not always well supported by well-defined schedules. The baselines for human spaceflight projects also provide little visibility into long-term planning and costs.    Today, this Committee is discussing the concern that NASA needs more stability in order to truly thrive. That is what the Space Leadership Preservation Act is focused on. The concept of stability is an important one for NASA since projects require heavy investments both in terms of time and money, and they require the cooperation and support from a variety of communities.    We have not assessed the extent to which the act can insulate NASA from instability, but I do have a couple observations. First, if NASA were to implement a Board of Directors, that board must be willing to hold program managers accountable, as well as leadership, by cancelling or restructuring programs that do not perform well. I recognize there is a frustration that shuttle successor programs never seem to make it very far, and it's clear that these programs are impacted by politics. On the other hand, when projects prove to be too ambitious or poorly managed, not cancelling them or not changing them can be damaging to the rest of NASA's portfolio.    Second, the act emphasizes the use of longer-term or multiyear contracts. Multiyear contracts can potentially save money and improve the industrial base by permitting more efficient use of the contractor's resources. It's important to keep in mind, however, that they are generally used for more production items and low-risk technology. Not too many NASA projects fit this description. Multiyear contracts can also reduce Congress's flexibility, as well as the agency's flexibility in making changes to programs and budgets, so the decision to use them needs to be carefully considered.    Finally, as you assess these measures, I would like to emphasize that our examinations of complex acquisitions across the government continually show that acquisition success hinges on 1) having robust long-term plans to guide programs; 2) having a sound business case when starting a program; 3) providing the right support and oversight throughout the life of the program.    We look forward to continuing to work with NASA and the Committee in instituting these improvements.    Thank you. I'm happy to answer any questions you have.</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman, for scheduling the Space Leadership Preservation Act hearing. I thank all the panelists for appearing and for their wisdom and foresight that you've shared with us so far.    You know, I've heard a lot of criticism from different directions about this proposed legislation, but I've not heard one single person propose an actual solution to the problem that we have of lack of programming and foresight and how we're going to get on track and stay on track and keep America's space program first.    Mr. Chairman, I think you brushed over the beginning a litany of events that kind of throws us into instability even more. I mean, we have a candidate that runs for office that says if he's elected President, he's going to abolish NASA and put the money into education. Then, when he appears on the space coast, he says I'm going to close the gap between the shuttle in Constellation and keep America first in space. Then, he gets elected and he asks for the NASA Administrator's resignation, and he doesn't fill the position. So when they're doing their planning and strategic planning for the Administration's future, the NASA Administrator seat is empty. That's kind of a shame.    So then we get a great NASA Administrator appointed, and then we have an Augustine Commission appointed--I may have these two out of order a little bit--to tell him what to do. And the Augustine Commission says, of course, the shuttle is terribly dangerous and needs to be scuttled.    We all know better than that. We know they were designed for over 100 missions and they were only in the 35th mission, mile per mile the safest space travel of any kind in the history of mankind. And we know the catastrophes, the tragedies were human error. It wasn't any failure of NASA.    And so then we go in a different direction and we have SLS and Orion now, which I think are great plans, great goals, but we have an Administration that frankly underfunds them. They suggest them, promote them, and then underfund them. So then NASA ends up being criticized that they can't keep up schedules that they'd foreseen before, and we know that when you delay projects and instability is going to cost increases, too.    So, you know, you have to wonder if you are NASA or you're a NASA employee or a potential NASA employee or even just a bright STEM student or, like the 18,000 who applied to be astronauts, what is our future going to be? What is our future going to be? And I love Neil deGrasse Tyson when he says, you know, our investment in space is fundamentally basically the only thing our Congress does strictly for future generations, to benefit future generations.    And so I think Congressman Culberson's bill is much too important to ignore not only for those reasons but for reasons of national security, our technological advancement, and eventually, the survival of our species.    Now either Dr. Griffin and Colonel Collins, China is rapidly developing the capability to access and use all regions of cislunar space. If the United States cedes that and moon base sole use to China, what do you foresee as the strategic and long-term impacts on the national interest of our country?</t>
   </si>
   <si>
@@ -274,9 +247,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. I'm way down here. Thank you very much to the panelists. Thank you to Chairman Culberson for bringing his bill before us.    And there are a lot of principles that I think we all share. Sometimes, you lose sight of those when you take shots at each other's party or each other's President. I remind my friends on the Republican side of the aisle, did the math, and I did this in public, 2016 minus 1972, it's been 44 years since we've been on the Moon and 24 of those years we've had Republican Presidents and 20 of those years we've had Democrats. So we need to get back into space.    And whether--so for me--and my colleagues know that I like this time frame to get us to Mars, when the planets lineup, it's time to get there. We set an outside date, 2033. That's a responsibility of us on the political side whether it's the Administration or Congresses, which change every 2 years.    So I'm going to give my friend, who's the Chairman of CJS, the benefit of the doubt because he's been through this. And if there's some way that we can put together a structure that takes out the vagaries of each Congressional election and each presidential election and gets us to Mars by 2033 and you folks with the engineering degrees and the physics degrees and the accounting degrees figure out how to put the building blocks in place, then I'm there. That's your job. My job is to find you the money.    And we've had testimony that over the course of--to get to Mars is $200 billion plus. That's a lot of money. But we found $800 million for the banks over a weekend. We found $250 billion a year to be in Afghanistan and Iraq. We can do this.    So, I'd like to have some kind of structure at NASA that allows for long-term thinking. So I'll start with you, Ms. Collins. You said you didn't have a real position on the Chairman's bill, but what would you do that--what would you say to me? How can we put long-term planning into place when we have two-year cycles for Congress and four-year cycles for the President?</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    And I would like to say to my friend Mr. Perlmutter--actually to the Chairman if it's all right--I think we should have our own sticker that says 2032. We don't want to settle for 2033. Republicans ought to go for 2032.    In 1982, President Reagan reorganized our Navy's Nuclear Propulsion Program, citing the need to preserve structures and policies. While ensuring the program continues to function smoothly and efficiently, he ordered that the director of this program of great national import be appointed for an eight-year term. This change ensured that the leadership and direction of our nuclear Navy remained constant over at least, at least two presidential cycles if not multiple Administrations.    Likewise, NASA is an agency carrying out programs of national importance, which by their very nature take years, as Dr. Griffin just talked about, if not decades, to formulate, develop, and carry out. It makes complete sense to me to remove the Administrator of NASA from the political cycles in order to allow for continuity and stability.    I am proud to be a cosponsor of Chairman Culberson's bill, which proposes a ten-year term for the NASA Administrator. The Space Foundation's pioneering doctrine recommends a term of five years. I am working on legislation that includes a provision that establishes a five-year term as well. Regardless of the number, however, it seems that there is growing consensus among stakeholders and advocates to set the length of the Administrator's term beyond the standard political cycles.    Ms. Chaplain, while you focus mostly on space programs, have you gotten a sense from your time at GAO of the differences in how NASA acquisitions differ from those of government agencies that are run by nonpolitical or nontraditional heads? Have you seen a difference in how those acquisition strategies go?</t>
   </si>
   <si>
@@ -451,9 +418,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. And I also apologize for being tardy today. I was at that meeting with Secretary Kerry, and I happen to believe that our space effort is actually as important as American foreign policy to our future, so I tried to run between these two.    I've been here 28 years, and of course Dr. Griffin and I worked together over these years, and I certainly--let me just be on the record that I certainly agree with your concept of making sure we go to the moon before we go on to Mars and learn a lot as we're doing that, getting back to the moon.    What I have seen, Mr. Chairman, is our biggest problem in having space--a rationale space program is with us. I mean, we just seem to try to--we prioritize projects and we spend money for projects that we can't do. And thus we--and then we end up defunding what we can do. And that's--it's irrational, and I understand, with all due respect to my friend and colleague who is so adamant about going to Mars, I have several of my friends who are that way, we're not ready to go to Mars right now. We don't even know--the technology's not there. But there is the technology and availability of doing things that we can actually accomplish right now. And if we want the respect of the American people, we're going to do it by making sure we get things done.    And having a long-term commitment that drains money away from the projects that we can do in order to accomplish something that we can't do now and maybe won't be able to do within our lifetime, that is not being responsible, and frankly, I think that's where the problem comes from. We continually try to finance projects that we are incapable of accomplishing at that moment. And of course you're going to have a high failure rate if you do that.    So I would hope that as we--and I--as I say, I agree with Dr. Griffin on his approach that we need to step by step--several of the things we could do, by the way, which we could do which may be totally unfunded if we just spend all our money on going to Mars is we have a space debris challenge. We're not going to be able to do anything in space unless we have some sort of space debris program. It'll have to be an international effort. But in the years ahead, that's going to overwhelm us. It's already beginning to overwhelm us.    We don't have a global defense system set up so that if an asteroid--and I'll ask this of the panel. If that meteorite that skimmed the surface over in Russia a couple of years ago, instead of going--being in uninhabited areas would have hit a major city anywhere in the world and killed hundreds of thousands of people, do you think that that would have then changed the entire course and direction of our own space budget? Wouldn't that have been a factor that would have overwhelmed--and then all of these other programs that we've financed like long-term missions to Mars would just go by the wayside? So we need to take care of that issue, don't we? Don't we need to take care of space debris? Don't we need to take care of those things that we can get done and in the private sector we could leave things up like--by the way, refueling stations, et cetera?    There is one other lab, by the way, in terms of the space station. I remember, wasn't the space lab also a huge investment that we just allowed to come down as well?</t>
   </si>
   <si>
@@ -481,9 +445,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Yes, thank you, Mr. Chairman. And thank you all very much for being here.    Dr. Griffin, in his prepared statement this morning Representative Culberson stated ``that over the years, a lack of clear mission has worn down morale at many centers.'' And he talked, interestingly, about people saying, well, is our mission to go to asteroids or is it to go to the moon again or is it to go to Mars?    But I also find the assessment somewhat puzzling when you consider the findings from the annual survey by the nonpartisan Partnership for Public Service that consistently ranks NASA as the best place to work among federal agencies. And while the median overall index score for large agencies has shown a slight downward trend 2011 through 2015, NASA's score actually went up during the same period.    And according to the partnership, the biggest factor affecting employee satisfaction and commitment overall in the best places to work rank is related to effective leadership. How do you reconcile NASA being a great place to work with Representative Culberson's concern about a lack of morale?</t>
   </si>
   <si>
@@ -553,9 +514,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Dr. Griffin, we hear over and over again about a need for constancy of purpose at NASA and the detrimental impacts of shifting priorities, organizational conflicts, mixed signals from Congress, and I can go on and on. How much of this lack of purpose do you think can be changed through a reorganization such as the one outlined in the Space Leadership Preservation Act?</t>
   </si>
   <si>
@@ -607,9 +565,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Chairman, and thank you all for being here.    First, I seek unanimous consent to enter into the record an article that was coauthored by former Commerce, Justice, Science Subcommittee Chairman Frank Wolf and Norm Augustine, who this Committee knows very well. So I'd ask unanimous consent for submission----</t>
   </si>
   <si>
@@ -635,9 +590,6 @@
   </si>
   <si>
     <t>412624</t>
-  </si>
-  <si>
-    <t>Barry Loudermilk</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    Dr. Griffin, I know during your tenure at NASA you put a lot of focus on international cooperation, but you were cautious about putting international partners on a critical path, especially from the lessons from the International Space Station program. What--I'm sorry. What recommendations would you have for the future Administrators regarding international cooperation?</t>
@@ -1072,11 +1024,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1098,11 +1048,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1122,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1150,11 +1096,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1174,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1202,11 +1144,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1226,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1254,11 +1192,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1278,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1306,11 +1240,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1330,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1358,11 +1288,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1382,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1410,11 +1336,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1434,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1462,11 +1384,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1488,11 +1408,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1512,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1540,11 +1456,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1564,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1592,11 +1504,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1616,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1644,11 +1552,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1668,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1696,11 +1600,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1720,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1748,11 +1648,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1772,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1800,11 +1696,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1824,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1852,11 +1744,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1876,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1904,11 +1792,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1928,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1956,11 +1840,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1980,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2008,11 +1888,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2032,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2060,11 +1936,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2084,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2110,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2136,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2162,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2188,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2214,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2240,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2266,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2292,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2318,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2344,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2370,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2396,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2422,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2450,11 +2296,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2474,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2500,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2526,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2552,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2578,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2604,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2630,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2658,11 +2488,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2682,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2708,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2734,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2760,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2786,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2812,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2838,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2864,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2892,11 +2704,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2916,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2942,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2968,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2994,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3020,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3046,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3072,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3098,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3124,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3150,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3176,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
         <v>97</v>
-      </c>
-      <c r="H83" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3202,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3228,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3256,11 +3040,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3280,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3306,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3332,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3358,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3384,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3410,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3436,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3462,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3488,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3516,11 +3280,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3540,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3566,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3592,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3618,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3644,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3670,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3696,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3722,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3748,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3774,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3800,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3826,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3852,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3880,11 +3616,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3904,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>85</v>
-      </c>
-      <c r="G111" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3930,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3956,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>85</v>
-      </c>
-      <c r="G113" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3982,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4008,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>85</v>
-      </c>
-      <c r="G115" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4034,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4060,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>85</v>
-      </c>
-      <c r="G117" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4088,11 +3808,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4112,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
-      </c>
-      <c r="G119" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4138,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4164,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
-      </c>
-      <c r="G121" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4190,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4216,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
-      </c>
-      <c r="G123" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4242,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4268,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
-      </c>
-      <c r="G125" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4296,11 +4000,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4320,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
-      </c>
-      <c r="G127" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4346,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4372,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
-      </c>
-      <c r="G129" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4398,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4424,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4450,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4476,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
-      </c>
-      <c r="G133" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4502,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4528,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4554,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4580,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>154</v>
-      </c>
-      <c r="G137" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4606,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4632,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
-      </c>
-      <c r="G139" t="s">
+        <v>142</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>155</v>
-      </c>
-      <c r="H139" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4658,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4684,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
-      </c>
-      <c r="G141" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4710,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4736,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
-      </c>
-      <c r="G143" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4762,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4788,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
-      </c>
-      <c r="G145" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4814,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4840,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>154</v>
-      </c>
-      <c r="G147" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4866,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4892,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>178</v>
-      </c>
-      <c r="G149" t="s">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4918,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4944,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>178</v>
-      </c>
-      <c r="G151" t="s">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4970,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4996,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>178</v>
-      </c>
-      <c r="G153" t="s">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5022,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5048,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>178</v>
-      </c>
-      <c r="G155" t="s">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5074,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5100,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
-      </c>
-      <c r="G157" t="s">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5126,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5152,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
-      </c>
-      <c r="G159" t="s">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5178,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5204,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
+        <v>165</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
         <v>178</v>
-      </c>
-      <c r="G161" t="s">
-        <v>179</v>
-      </c>
-      <c r="H161" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5230,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5256,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>178</v>
-      </c>
-      <c r="G163" t="s">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5282,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5308,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>196</v>
-      </c>
-      <c r="G165" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5334,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>27</v>
-      </c>
-      <c r="G166" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5360,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>196</v>
-      </c>
-      <c r="G167" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5386,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5412,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>196</v>
-      </c>
-      <c r="G169" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5438,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5464,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>196</v>
-      </c>
-      <c r="G171" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5490,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5516,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>206</v>
-      </c>
-      <c r="G173" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5542,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5568,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>206</v>
-      </c>
-      <c r="G175" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5594,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5620,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>206</v>
-      </c>
-      <c r="G177" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5646,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5672,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>206</v>
-      </c>
-      <c r="G179" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5698,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5724,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>206</v>
-      </c>
-      <c r="G181" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5750,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5776,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>206</v>
-      </c>
-      <c r="G183" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5802,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20832.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20832.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order. And without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing entitled ``The Space Leadership Preservation Act and the Need for Stability at NASA.''    I'll recognize myself for an opening statement and then the Ranking Minority Member, Ms. Eddie Bernice Johnson from Texas.    And let me say just looking out on the audience today I'm glad to see so much interest in this subject. And we have actually two panels today. We're going to start off with Congressman John Culberson, and then we'll go to a panel of three witnesses after that.    Presidential transitions often have provided a challenge to NASA programs that require continuity and budget stability. But few have been as rocky as the Administration change we experienced seven years ago.    Even before he was elected President, then-candidate Barack Obama planned to delay the Constellation program being built to take humans to deep space destinations. One of the Obama Administration's first acts, in fact, was to cancel this NASA program outright.    These jarring decisions have been accompanied by repeated budget proposals that continue to cut key programs designed to take humans to deep space destinations like the Moon and Mars. The most recent proposal released just a few weeks ago would shrink the Space Launch System and Orion crew vehicle by more than $800 million. Even worse, the entire budget depends on make-believe budget gimmicks.    This regrettable approach continues to make a Mars mission all but impossible. It is not the approach of an administration that is serious about maintaining America's leadership in space.    The recent report from the National Academies of Science titled ``Pathways to Exploration: Rationales and Approaches for a U.S. Program of Human Space Exploration,'' stated that: ``The human spaceflight program in the United States had experienced considerable programmatic turbulence, with frequent and dramatic changes in program goals and mission plans in response to changes in national policies. The changes had a high cost in program resources and opportunities, and imposed what many feared was an intolerable burden on already-constrained human exploration budgets.''    The Aerospace Safety Advisory Panel, an advisory body established by Congress to report to NASA and Congress on safety issues that affect NASA, stated in their recent report in January that ``NASA faces another challenge that has historically led to disruption and inefficiency and arguably has impact on safety and good systems engineering. This is the challenge of starting over with new programs and directions following administration change. As in prior reports, the ASAP urges constancy of purpose. Failing to stay the course with current programs of record will make it an even longer, costlier, and potentially less safe trip to Mars.''    These facts are not lost on this committee. The most recent NASA Authorization Act from 2010 contains several provisions that remain the ``law of the land'' and continue to guide NASA activities.    The Act notes that the ``commitment to human exploration goals is essential for providing the necessary long-term focus and programmatic consistency and robustness of the United States civilian space program.''    The Act states that ``It is in the United States' national interest to maintain a government-operated space transportation system for crew and cargo delivery to space.''    The Act directs that ``The United States must develop as rapidly as possible replacement vehicles capable of providing both human and cargo launch capability to low-Earth orbit and to destinations beyond low-Earth orbit.''    The 2005, 2008, and 2010 NASA Authorization Acts are consistent in their direction to NASA. NASA needs the same certainty from the executive branch that it receives from Congress. Today, we are discussing how to provide that stability to NASA once again as we look toward a presidential transition in less than a year.    My friend and Texas colleague, Representative John Culberson, has a bill that seeks to do just that. I thank Representative Culberson for his leadership on this issue, and I am a cosponsor of his legislation. We share the goal of providing NASA with long-term, consistent support, and it is great to have him here today to discuss his bill.    One of the first hearings that this committee held during my chairmanship was, in fact, on this very topic.    I look forward to hearing from our witnesses today how we can ensure stability in our space program through the next presidential transition.    Dr. Michael Griffin provides a unique perspective as the last NASA Administrator to serve before a presidential transition. Colonel Eileen Collins not only has served as a pilot and commander of space shuttle missions, but also as a member of the NASA Advisory Council during the last transition. And Ms. Cristina Chaplain brings the Government Accountability Office's insightful perspective.    We look forward to hearing their testimony and learning how we can ensure that NASA remains on the forefront of space exploration through the next presidential transition.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman, and good morning. I'd like to start by welcoming our witnesses.     NASA is a cornerstone of our nation's R&amp;D enterprise, a source of inspiration to our young people, and a worldwide symbol of America's technological prowess and dedication to the peaceful exploration of space. We want it to succeed.    Today's hearing is entitled ``The Space Leadership Preservation Act and the Need for Stability at NASA.'' While I have concerns about the legislation itself, I wholeheartedly agree with the premise that we want to preserve America's leadership in space, and that NASA will need stability if it is to maintain that leadership role. I am heartened that Chairman Culberson has long felt the same way.    That said, I regret that the legislation being discussed today, while obviously well-intentioned, unfortunately is not likely to fix the fundamental causes of instability at NASA. Let me give just a few examples of my concern with what the bill does and doesn't do.    First, the bill would establish a Board of Directors apparently modeled after the National Science Foundation's National Science Board. Of course, NSF and NASA are quite different agencies with quite different missions. So the applicability of the NSF model to NASA is unclear.    But there are other differences that also need to be noted. As we know, the members of the NSB are all nominated by the President. The Board of Directors established in this bill, on the other hand, would have a majority of its members named by Congress using a formula that injects partisan politics into a board that ostensibly is supposed to insulate NASA from politics.    In addition, the Board would be tasked with preparing the budget for NASA in parallel with NASA's own budget preparations process. This seems to be a prescription for wasteful duplication at best, with the potential for serious confusion and instability as the more likely outcomes.    It is unclear to me how this small group of individuals with no agency management responsibilities or accountability is supposed to develop a detailed budget for a $19 billion agency without having to set up an unwieldy competing administrative infrastructure of its own. This is an approach that will not lead to a good outcome.    Instead, we should let the dedicated men and women at NASA who are tasked with carrying out NASA's challenging programs be the ones to develop its budget requests. It should not be done by a group of individuals who, though may be talented, will not have any accountability for delivering results under the budget they may propose. If we're concerned that OMB is adjusting NASA's budget request in unhealthy ways, then we in Congress already have sufficient oversight and budgetary tools at our disposal to correct that situation.    Next, the bill would establish a fixed ten-year term for the NASA Administrator. I frankly don't know what problem this provision is intended to correct. A mission agency benefits from having an administrator chosen by the President or she--that he or she serves. Having a carryover administrator from a previous President's term will do nothing to ensure stability if the President wishes to pursue a different policy agenda from his or her predecessor and doesn't see the Administrator as being part of his or her team.    In addition, as history shows, having a fixed term for an agency head means little in practice. Only 5 of the last 15 NSF Directors served out a full six-year term, and similar instability has been the norm for FAA despite the five-year term for its Administrators.    I could go on, but the reality is that we don't need to set up a new bureaucracy outside of NASA or alter the appointment process for its leaders. If we're interested in ensuring stability at NASA, it is already in our power as Congress to do so. We are the ones who ultimately determine NASA's budget. We can provide the necessary budgetary stability to NASA or we can destabilize it with appropriation delays, continuing resolutions, and shutdowns. The choice is ours. It's right here in this Committee.    In addition, we have the ability to set a stable direction for NASA, and we did just that in the 2015 NASA reauthorization bill that passed the House. We see that Mars should be the goal of our human exploration program. The President has agreed, though that was determined before he became President. We should take that consensus and build on it rather than having an unelected board put forth its own exploration vision every four years.    The two Congressional actions that I have just described, one budgetary and one policy-oriented, will do more to maintain space leadership and ensure stability at NASA than anything we might do in this bill that we are discussing today.    So in closing, I again want to welcome our witnesses. I appreciate your service, and I look forward to your testimony. Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Culberson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Culberson. Thank you.</t>
   </si>
   <si>
@@ -91,6 +109,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman.    Good morning. It's a great pleasure to be here this morning with our esteemed colleague and our first witness, as we just heard, Chairman John Culberson.    And I represent the 36th District of Texas, which is the home of the Johnson Space Center. I've had the privilege of visiting JSC on a number of occasions. Every time I stop by there, I am reminded of the truly extraordinary accomplishments that we have made as a nation. I am also inspired by the potential that exists at NASA to continue expanding our horizons deeper into space. It's truly an awe-inspiring mission that is pursued with dedication by NASA's personnel and its contractors.    Space exploration and science captures the American people's interests, it inspires us to pursue extraordinary goals, and keeps us on the forefront of scientific achievement. It is a challenging endeavor that distinguishes the United States as a global leader. It supports innovation and economic growth, and inspires the next generation to build, explore, and discover.    The missions of NASA that we should be focused on are complex, they are expensive, and they are long term. Unfortunately, the last eight years have been characterized by turmoil, and by upheaval and uncertainty. If there's anything that we have learned from this experience, it is that our national space program can ill-afford to change our program of record every time that there is a new President. Space exploration requires stability and unwavering dedication.    Chairman Culberson, a strong supporter and good friend of our nation's space program, has been vocal, as you heard this morning, about how the billions of dollars have been dedicated, directed, and redirected over the years with fits and starts of various NASA projects. Your pursuit of a solution to this challenge, Representative Culberson, is greatly appreciated by me and many of our colleagues.    Space exploration is a very worthwhile investment for the taxpayer and for the Nation. It inspires the next generation of explorers to pursue science, technology, engineering, and math; it advances U.S. soft power and international relations; it reinforces our aerospace industrial base; increases economic competitiveness; and advances our national security interests.    There's a great deal of promise in the future of space, but if we fail to provide stability for NASA's space exploration programs, we may well lose our leadership in space. Make no mistake, other nations are nipping at our heels and we can ill-afford to rest on our laurels. Losing U.S. leadership in space will significantly undermine our national interests, erode our industrial base, undermine our international influence, and cause the loss of a skilled workforce and will jeopardize our national security. Our colleague Bill Posey often says that the Chinese are going to the moon, and they're not going there just to collect rocks, and I couldn't agree more.    Mr. Culberson's Space Leadership Preservation Act offers us an opportunity to review many of the challenges facing our nation's space agency. There may be many ways to achieve the goals of this legislation, and so I have an open mind. Presidential elections offer both challenges and opportunities, and that's why it is imperative that our colleagues in the Senate consider the bipartisan NASA Authorization Act that passes via unanimous consent over a year ago. They must bring this up. NASA would be well-served by the guidance that legislation provides. It would provide stability of purpose in an uncertain time. All that they would have to do is update the funding levels to match the recently passed Omnibus Appropriations levels for NASA.    And I appreciate hearing the testimony of Representative Culberson and looking forward to hearing our other distinguished witnesses this morning, and I thank them for appearing here.    And with that, I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -100,6 +124,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. I'm sorry, Mr. Chairman. This is my third hearing since 9:30.    From what I understand, you've already introduced----</t>
   </si>
   <si>
@@ -115,18 +145,27 @@
     <t xml:space="preserve">    Chairman Smith. In that case, we will proceed, and, Dr. Griffin, you're welcome to start your testimony.</t>
   </si>
   <si>
+    <t>Griffin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffin. Thank you, Chairman Smith, Chairman Culberson, Mr. Brooks, for the kind introduction and recognition. I'm--and thanking Ranking Member Johnson and Members of the Committee for appearing here today and allowing me to appear to discuss the future of our nation's space program.    With the inauguration of a new Administration and Congress, we will have both the need and the opportunity to restore American preeminence in space, and after that, to ensure stability in the policy and programs we create. We should begin now, and in that context, it may be of some value to review some of our recent history. Some of that has been summarized by Chairman Culberson in the earlier panel, and I will not repeat it.    I will make the point that, following the loss of Space Shuttle Columbia, the Columbia Accident Investigation Board identified as one of the root causes of that failure the lack of a clearly identifiable long-term strategic plan for NASA. As has been stated, by 2009 that issue had been remedied, and we were executing a powerful and compelling new plan. That plan respected the need to complete existing commitments, the constraints imposed by the geography of the solar system, and the existing state of our technology and operational experience. The plan respected the need of our international partners for a roadmap for human spaceflight beyond the International Space Station, while offering critical challenges to which they could make critical contributions. Finally, being achievable with only incremental real dollar budget growth, it respected realistic budget constraints. It was a good plan.    This strategy received nearly unanimous bipartisan endorsement by successive Congresses, Republican and Democratic, in the NASA Authorization Acts of 2005 and 2008, clearing the path for a period of unimpeded progress. And by early 2009, the shuttle was flying regularly, the ISS was nearing completion, a new crew transportation system was in work, and the first two contracts for commercial cargo delivery to the International Space Station had been signed. Some 14 nations had embraced partnership with the United States to return to the moon and were orienting their own national space policies to that end.    But by early 2010, just a year later, this strategy was in disarray. Human lunar return had been abandoned, as had NASA's development of a new crew transportation system. There was no plan beyond ISS save for a nebulous commitment to visit an asteroid sometime in the 2020s. Inasmuch as this--such a mission is inherently a one-off exercise with limited opportunities for international involvement, our existing space station partners rightly felt abandoned and potential new partners saw very little merit in working with the United States.    The nations that were eager to participate in space exploration in 2009 still wish to do so today, but a leader is needed for such an endeavor, and for now, the only possible leader is the United States. If we do not choose to engage, then eventually other nations will, and we're unlikely to be pleased with that result. This is not a future that the United States should allow to come to pass.    Our space policy is bankrupt. While I certainly support the stability for NASA that is the topic of this hearing today, I would not want that desire to prevent us from correcting the problems that have been created over the last seven years. To quote my friend and colleague Jim Albaugh, the former Boeing commercial aircraft CEO, the current Administration's plan for space offers ``no dream, no vision, no plan, no budget, and no remorse.'' We can fix this and we must.    Thank you. I would be happy to answer any of your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Griffin.    Colonel Collins.</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Collins. Thank you, Chairman Smith and Ranking Member Johnson and Committee Members. It is a pleasure for me to be here today to talk about the future of our great country and to share my perspective as a former space shuttle commander. I have a passion for exploration, and I'm firmly committed to the future successes of our country's space program.    A few words about my background, I'm a former Air Force test pilot, a graduate of the Air Force Test Pilot School, and a veteran of four spaceflights. I served for five years on the NASA Advisory Council from 2007 to 2011. I currently serve on the National Academy of Sciences' Aerospace Science and Engineering Board, and although I serve on this and many other boards and advisory panels, I want to say that I'm here today representing myself and not any of these other panels.    So in my opening comments I have three general points. The first one is I want to thank you for asking the opinion of the operators of our space systems or the guys in the trenches so to speak. I hope I can give you an operational perspective from the astronaut's point of view.    Secondly, I can't emphasize enough the love that Americans have for our space program. As a speaker and as an advisor, I routinely meet people from all around the United States. They are inspired by human spaceflight and they are very excited about scientific discoveries. They see the space program as a bright future, where we can imagine possibilities both human and technical.    And frankly, the brand of NASA is easy to love. For example, my story began in 4th grade when I read a magazine article about the Gemini astronauts. Since then, I've wanted to fly in space and be part of this great adventure. It led me to study of mathematics and a career in flying.    Today, I see people of all ages light up when the subject of space travel is discussed. In my opinion, the history of American exploration is right up there with baseball, apple pie, and the Fourth of July. And I might add that the recent announcement for new astronauts brought a record number of applicants, 18,300 applicants, which is more than twice as many as the previous record.    Now, my third point concerns the purpose and stability of the human spaceflight program. Obviously, the success of any decades-long program is related to the long-term commitment from the top. So first, a mission is defined. Next, a strategy is set. And then, an operational plan is written. Now, that operational plan includes a test plan, and a test plan includes a build-up approach. This is one of the fundamentals that we learn when we go--and that we teach when we go through the test pilot schools.    As we run a test program, occasionally, technical changes will need to be made because we learn as we go. Sometimes, we make mistakes when we do things for the first time. But necessary technical changes will not affect the originally defined mission. That must stay stable so that the team members can stay focused on the mission.    I understand the long-range vision for U.S. human--for the U.S. human spaceflight program is landing a human on Mars. I support that mission. And I sincerely hope that that first person is an American. We can do it, and frankly, we can afford it. Those who say we can't are just putting their priorities elsewhere.    When asked about how to best prepare for a successful Mars mission, as a crewmember, I certainly would like to see the hardware tested on the moon's surface first. This is part of a test plan's build-up approach. Policy leaders are asking astronauts to risk their lives on space journeys, and it is our experience that testing in similar environments like the moon will minimize risk.    When the Constellation program was cancelled in 2010, some people said, ``why go back to the moon? We've already been there.'' Imagine the year 1806, when Lewis and Clark returned from their 2-1/2 year journey of exploring the western continent. They and their team members are declared national heroes. But then no one else goes back because we had already been there. Of course, this is almost inconceivable. It would diminish the entire reason for going in the first place.    I was a member of the NASA Advisory Council when Constellation was cancelled. I was shocked, as were my colleagues, first, because it was so unexpected, and second, because the timing, so close to the end of the space shuttle program, left NASA with no options.    The legislation that we're discussing here today has ideas that will certainly address this problem. I'm not wedded to any specific proposal myself, but the problem does need to be addressed, especially given the billions of dollars wasted as a result and the lost time and motivations of engineers and astronauts.    I believe program cancellation decisions that are made by bureaucracies, behind closed doors, without input by the people, are divisive, damaging, cowardly, and many times more expensive in the long run. As a shuttle commander, I would never make a huge decision without input from all the experts, even the ones I do not agree with.    So what will keep us from having surprises like this set us back years? A continuity of purpose over many years and political administrations. I know there are ways to do this through policy, organizational structure, and strong leadership. And finally, strategic stability will give the teams efficiency and a focus that we saw in the Apollo program. Apollo happened by the end of the decade because people knew exactly what the mission was and when it should happen. They believed in it. And of course it was properly funded. There was not much division over what the mission was, and NASA was given the responsibility to figure out how to do it, and the result was dedication, passion, and success. And I know we can do this again. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Colonel Collins.    And, Ms. Chaplain.</t>
   </si>
   <si>
+    <t>Chaplain</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chaplain. Chairman Smith, Ranking Member Johnson, and Members of the Committee, thank you for inviting me to discuss the Space Leadership Preservation Act. You've heard the policy and strategic perspective, as well as the operational perspective, and I'm here today to discuss the acquisition management perspective.    As you know, NASA's acquisition management has been on GAO's high-risk list for more than two decades because of persistent cost growth and schedule slippage. In recent years, however, NASA has made progress in reducing this risk. Specifically, in 2012, shortly after NASA re-baselined its largest project, the James Webb telescope, development cost growth averaged about 46 percent. This year, we plan to report that it is at 17 percent. And when James Webb is excluded, cost growth is just 1.3 percent, though that number is affected by the addition of Space Launch System and Orion to the portfolio.    NASA has made positive changes in the past five years that have helped contribute to the improved performance of its projects. These include better cost and schedule estimating, use of management reserves, and program monitoring. Moreover, many projects are able to demonstrate that they have closed gaps in knowledge about technology and design at key junctures in their development process.    This does not mean NASA's acquisition problems are solved. Several projects in the portfolio are experiencing significant problems that are not just the result of inherent technical risk. Programs still struggle with underestimating complexity and managing and overseeing contractors. Moreover, the most complex and costly development efforts, the human spaceflight projects and James Webb, are entering their most risky phases of development. Before we can take NASA off our high-risk list, we need to see how these projects perform in times when they are most tested.    Further, while initial estimates are more realistic, we are finding larger projects do not plan to update their estimates on a regular basis and that estimates are not always well supported by well-defined schedules. The baselines for human spaceflight projects also provide little visibility into long-term planning and costs.    Today, this Committee is discussing the concern that NASA needs more stability in order to truly thrive. That is what the Space Leadership Preservation Act is focused on. The concept of stability is an important one for NASA since projects require heavy investments both in terms of time and money, and they require the cooperation and support from a variety of communities.    We have not assessed the extent to which the act can insulate NASA from instability, but I do have a couple observations. First, if NASA were to implement a Board of Directors, that board must be willing to hold program managers accountable, as well as leadership, by cancelling or restructuring programs that do not perform well. I recognize there is a frustration that shuttle successor programs never seem to make it very far, and it's clear that these programs are impacted by politics. On the other hand, when projects prove to be too ambitious or poorly managed, not cancelling them or not changing them can be damaging to the rest of NASA's portfolio.    Second, the act emphasizes the use of longer-term or multiyear contracts. Multiyear contracts can potentially save money and improve the industrial base by permitting more efficient use of the contractor's resources. It's important to keep in mind, however, that they are generally used for more production items and low-risk technology. Not too many NASA projects fit this description. Multiyear contracts can also reduce Congress's flexibility, as well as the agency's flexibility in making changes to programs and budgets, so the decision to use them needs to be carefully considered.    Finally, as you assess these measures, I would like to emphasize that our examinations of complex acquisitions across the government continually show that acquisition success hinges on 1) having robust long-term plans to guide programs; 2) having a sound business case when starting a program; 3) providing the right support and oversight throughout the life of the program.    We look forward to continuing to work with NASA and the Committee in instituting these improvements.    Thank you. I'm happy to answer any questions you have.</t>
   </si>
   <si>
@@ -220,6 +259,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman, for scheduling the Space Leadership Preservation Act hearing. I thank all the panelists for appearing and for their wisdom and foresight that you've shared with us so far.    You know, I've heard a lot of criticism from different directions about this proposed legislation, but I've not heard one single person propose an actual solution to the problem that we have of lack of programming and foresight and how we're going to get on track and stay on track and keep America's space program first.    Mr. Chairman, I think you brushed over the beginning a litany of events that kind of throws us into instability even more. I mean, we have a candidate that runs for office that says if he's elected President, he's going to abolish NASA and put the money into education. Then, when he appears on the space coast, he says I'm going to close the gap between the shuttle in Constellation and keep America first in space. Then, he gets elected and he asks for the NASA Administrator's resignation, and he doesn't fill the position. So when they're doing their planning and strategic planning for the Administration's future, the NASA Administrator seat is empty. That's kind of a shame.    So then we get a great NASA Administrator appointed, and then we have an Augustine Commission appointed--I may have these two out of order a little bit--to tell him what to do. And the Augustine Commission says, of course, the shuttle is terribly dangerous and needs to be scuttled.    We all know better than that. We know they were designed for over 100 missions and they were only in the 35th mission, mile per mile the safest space travel of any kind in the history of mankind. And we know the catastrophes, the tragedies were human error. It wasn't any failure of NASA.    And so then we go in a different direction and we have SLS and Orion now, which I think are great plans, great goals, but we have an Administration that frankly underfunds them. They suggest them, promote them, and then underfund them. So then NASA ends up being criticized that they can't keep up schedules that they'd foreseen before, and we know that when you delay projects and instability is going to cost increases, too.    So, you know, you have to wonder if you are NASA or you're a NASA employee or a potential NASA employee or even just a bright STEM student or, like the 18,000 who applied to be astronauts, what is our future going to be? What is our future going to be? And I love Neil deGrasse Tyson when he says, you know, our investment in space is fundamentally basically the only thing our Congress does strictly for future generations, to benefit future generations.    And so I think Congressman Culberson's bill is much too important to ignore not only for those reasons but for reasons of national security, our technological advancement, and eventually, the survival of our species.    Now either Dr. Griffin and Colonel Collins, China is rapidly developing the capability to access and use all regions of cislunar space. If the United States cedes that and moon base sole use to China, what do you foresee as the strategic and long-term impacts on the national interest of our country?</t>
   </si>
   <si>
@@ -247,6 +292,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. I'm way down here. Thank you very much to the panelists. Thank you to Chairman Culberson for bringing his bill before us.    And there are a lot of principles that I think we all share. Sometimes, you lose sight of those when you take shots at each other's party or each other's President. I remind my friends on the Republican side of the aisle, did the math, and I did this in public, 2016 minus 1972, it's been 44 years since we've been on the Moon and 24 of those years we've had Republican Presidents and 20 of those years we've had Democrats. So we need to get back into space.    And whether--so for me--and my colleagues know that I like this time frame to get us to Mars, when the planets lineup, it's time to get there. We set an outside date, 2033. That's a responsibility of us on the political side whether it's the Administration or Congresses, which change every 2 years.    So I'm going to give my friend, who's the Chairman of CJS, the benefit of the doubt because he's been through this. And if there's some way that we can put together a structure that takes out the vagaries of each Congressional election and each presidential election and gets us to Mars by 2033 and you folks with the engineering degrees and the physics degrees and the accounting degrees figure out how to put the building blocks in place, then I'm there. That's your job. My job is to find you the money.    And we've had testimony that over the course of--to get to Mars is $200 billion plus. That's a lot of money. But we found $800 million for the banks over a weekend. We found $250 billion a year to be in Afghanistan and Iraq. We can do this.    So, I'd like to have some kind of structure at NASA that allows for long-term thinking. So I'll start with you, Ms. Collins. You said you didn't have a real position on the Chairman's bill, but what would you do that--what would you say to me? How can we put long-term planning into place when we have two-year cycles for Congress and four-year cycles for the President?</t>
   </si>
   <si>
@@ -277,6 +328,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    And I would like to say to my friend Mr. Perlmutter--actually to the Chairman if it's all right--I think we should have our own sticker that says 2032. We don't want to settle for 2033. Republicans ought to go for 2032.    In 1982, President Reagan reorganized our Navy's Nuclear Propulsion Program, citing the need to preserve structures and policies. While ensuring the program continues to function smoothly and efficiently, he ordered that the director of this program of great national import be appointed for an eight-year term. This change ensured that the leadership and direction of our nuclear Navy remained constant over at least, at least two presidential cycles if not multiple Administrations.    Likewise, NASA is an agency carrying out programs of national importance, which by their very nature take years, as Dr. Griffin just talked about, if not decades, to formulate, develop, and carry out. It makes complete sense to me to remove the Administrator of NASA from the political cycles in order to allow for continuity and stability.    I am proud to be a cosponsor of Chairman Culberson's bill, which proposes a ten-year term for the NASA Administrator. The Space Foundation's pioneering doctrine recommends a term of five years. I am working on legislation that includes a provision that establishes a five-year term as well. Regardless of the number, however, it seems that there is growing consensus among stakeholders and advocates to set the length of the Administrator's term beyond the standard political cycles.    Ms. Chaplain, while you focus mostly on space programs, have you gotten a sense from your time at GAO of the differences in how NASA acquisitions differ from those of government agencies that are run by nonpolitical or nontraditional heads? Have you seen a difference in how those acquisition strategies go?</t>
   </si>
   <si>
@@ -418,6 +475,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. And I also apologize for being tardy today. I was at that meeting with Secretary Kerry, and I happen to believe that our space effort is actually as important as American foreign policy to our future, so I tried to run between these two.    I've been here 28 years, and of course Dr. Griffin and I worked together over these years, and I certainly--let me just be on the record that I certainly agree with your concept of making sure we go to the moon before we go on to Mars and learn a lot as we're doing that, getting back to the moon.    What I have seen, Mr. Chairman, is our biggest problem in having space--a rationale space program is with us. I mean, we just seem to try to--we prioritize projects and we spend money for projects that we can't do. And thus we--and then we end up defunding what we can do. And that's--it's irrational, and I understand, with all due respect to my friend and colleague who is so adamant about going to Mars, I have several of my friends who are that way, we're not ready to go to Mars right now. We don't even know--the technology's not there. But there is the technology and availability of doing things that we can actually accomplish right now. And if we want the respect of the American people, we're going to do it by making sure we get things done.    And having a long-term commitment that drains money away from the projects that we can do in order to accomplish something that we can't do now and maybe won't be able to do within our lifetime, that is not being responsible, and frankly, I think that's where the problem comes from. We continually try to finance projects that we are incapable of accomplishing at that moment. And of course you're going to have a high failure rate if you do that.    So I would hope that as we--and I--as I say, I agree with Dr. Griffin on his approach that we need to step by step--several of the things we could do, by the way, which we could do which may be totally unfunded if we just spend all our money on going to Mars is we have a space debris challenge. We're not going to be able to do anything in space unless we have some sort of space debris program. It'll have to be an international effort. But in the years ahead, that's going to overwhelm us. It's already beginning to overwhelm us.    We don't have a global defense system set up so that if an asteroid--and I'll ask this of the panel. If that meteorite that skimmed the surface over in Russia a couple of years ago, instead of going--being in uninhabited areas would have hit a major city anywhere in the world and killed hundreds of thousands of people, do you think that that would have then changed the entire course and direction of our own space budget? Wouldn't that have been a factor that would have overwhelmed--and then all of these other programs that we've financed like long-term missions to Mars would just go by the wayside? So we need to take care of that issue, don't we? Don't we need to take care of space debris? Don't we need to take care of those things that we can get done and in the private sector we could leave things up like--by the way, refueling stations, et cetera?    There is one other lab, by the way, in terms of the space station. I remember, wasn't the space lab also a huge investment that we just allowed to come down as well?</t>
   </si>
   <si>
@@ -445,6 +508,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Yes, thank you, Mr. Chairman. And thank you all very much for being here.    Dr. Griffin, in his prepared statement this morning Representative Culberson stated ``that over the years, a lack of clear mission has worn down morale at many centers.'' And he talked, interestingly, about people saying, well, is our mission to go to asteroids or is it to go to the moon again or is it to go to Mars?    But I also find the assessment somewhat puzzling when you consider the findings from the annual survey by the nonpartisan Partnership for Public Service that consistently ranks NASA as the best place to work among federal agencies. And while the median overall index score for large agencies has shown a slight downward trend 2011 through 2015, NASA's score actually went up during the same period.    And according to the partnership, the biggest factor affecting employee satisfaction and commitment overall in the best places to work rank is related to effective leadership. How do you reconcile NASA being a great place to work with Representative Culberson's concern about a lack of morale?</t>
   </si>
   <si>
@@ -514,6 +583,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Dr. Griffin, we hear over and over again about a need for constancy of purpose at NASA and the detrimental impacts of shifting priorities, organizational conflicts, mixed signals from Congress, and I can go on and on. How much of this lack of purpose do you think can be changed through a reorganization such as the one outlined in the Space Leadership Preservation Act?</t>
   </si>
   <si>
@@ -565,6 +640,12 @@
     <t>412422</t>
   </si>
   <si>
+    <t>Hultgren</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Chairman, and thank you all for being here.    First, I seek unanimous consent to enter into the record an article that was coauthored by former Commerce, Justice, Science Subcommittee Chairman Frank Wolf and Norm Augustine, who this Committee knows very well. So I'd ask unanimous consent for submission----</t>
   </si>
   <si>
@@ -590,6 +671,12 @@
   </si>
   <si>
     <t>412624</t>
+  </si>
+  <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    Dr. Griffin, I know during your tenure at NASA you put a lot of focus on international cooperation, but you were cautious about putting international partners on a critical path, especially from the lessons from the International Space Station program. What--I'm sorry. What recommendations would you have for the future Administrators regarding international cooperation?</t>
@@ -974,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,7 +1069,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,4397 +1091,5167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G64" t="s">
+        <v>92</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G68" t="s">
+        <v>92</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G70" t="s">
+        <v>92</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G75" t="s">
+        <v>104</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G107" t="s">
+        <v>36</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G109" t="s">
+        <v>36</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>76</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G111" t="s">
+        <v>92</v>
+      </c>
       <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>76</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G113" t="s">
+        <v>92</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>49</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>76</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G115" t="s">
+        <v>92</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>49</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>76</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G117" t="s">
+        <v>92</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>133</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G119" t="s">
+        <v>153</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G120" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>133</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G121" t="s">
+        <v>153</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G122" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G123" t="s">
+        <v>153</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G124" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>133</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G125" t="s">
+        <v>153</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G127" t="s">
+        <v>164</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>142</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G129" t="s">
+        <v>164</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>142</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G131" t="s">
+        <v>164</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>46</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>142</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G133" t="s">
+        <v>164</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>46</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G135" t="s">
+        <v>164</v>
+      </c>
       <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
+        <v>46</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>142</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G137" t="s">
+        <v>164</v>
+      </c>
       <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
+        <v>46</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G139" t="s">
+        <v>164</v>
+      </c>
       <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>142</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G141" t="s">
+        <v>164</v>
+      </c>
       <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>43</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>142</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G143" t="s">
+        <v>164</v>
+      </c>
       <c r="H143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>142</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G145" t="s">
+        <v>164</v>
+      </c>
       <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>43</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>142</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G147" t="s">
+        <v>164</v>
+      </c>
       <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
       <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>165</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G149" t="s">
+        <v>189</v>
+      </c>
       <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>43</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>165</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G151" t="s">
+        <v>189</v>
+      </c>
       <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>43</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>165</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G153" t="s">
+        <v>189</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>43</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>165</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G155" t="s">
+        <v>189</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G156" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>165</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G157" t="s">
+        <v>189</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>165</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G159" t="s">
+        <v>189</v>
+      </c>
       <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G160" t="s">
+        <v>43</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>165</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G161" t="s">
+        <v>189</v>
+      </c>
       <c r="H161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I161" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s">
+        <v>43</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>165</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G163" t="s">
+        <v>189</v>
+      </c>
       <c r="H163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>182</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G165" t="s">
+        <v>208</v>
+      </c>
       <c r="H165" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
       <c r="H166" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G167" t="s">
+        <v>208</v>
+      </c>
       <c r="H167" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>182</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G169" t="s">
+        <v>208</v>
+      </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>182</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G171" t="s">
+        <v>208</v>
+      </c>
       <c r="H171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
       <c r="H172" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>191</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G173" t="s">
+        <v>219</v>
+      </c>
       <c r="H173" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>191</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G175" t="s">
+        <v>219</v>
+      </c>
       <c r="H175" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>46</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>191</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G177" t="s">
+        <v>219</v>
+      </c>
       <c r="H177" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I177" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>46</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>191</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G179" t="s">
+        <v>219</v>
+      </c>
       <c r="H179" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>46</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>191</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G181" t="s">
+        <v>219</v>
+      </c>
       <c r="H181" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>46</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>191</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G183" t="s">
+        <v>219</v>
+      </c>
       <c r="H183" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G184" t="s">
+        <v>31</v>
+      </c>
       <c r="H184" t="s">
-        <v>203</v>
+        <v>32</v>
+      </c>
+      <c r="I184" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20832.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20832.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
   </si>
   <si>
     <t>412655</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Babin</t>
@@ -1061,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,7 +1081,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,5164 +1106,5568 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>43</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>49</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>53</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>49</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>49</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>53</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>49</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>53</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G81" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G83" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>50</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H91" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>46</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H93" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>46</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>50</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H97" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>43</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H99" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>49</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>53</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>46</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>50</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H103" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>46</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>43</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H107" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H109" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G111" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H111" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>49</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>53</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G113" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H113" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>49</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>53</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G115" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H115" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>49</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>53</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G117" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H117" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G119" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="H119" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>43</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G121" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>43</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G123" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="H123" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>43</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G127" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>43</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G129" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>46</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>50</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G131" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>46</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>50</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G133" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>46</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>50</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G135" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H135" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>46</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>50</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G137" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I137" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>46</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>50</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G139" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>46</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>50</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G141" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I141" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>43</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>47</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G143" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I143" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J143" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>43</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>47</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G145" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I145" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>43</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>47</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G147" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I147" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J147" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H148" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G149" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H149" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I149" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" t="s">
-        <v>43</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>47</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G151" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H151" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I151" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s">
-        <v>43</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>47</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G153" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I153" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s">
-        <v>43</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>47</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G155" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H155" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I155" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s">
-        <v>43</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>47</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G157" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I157" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" t="s">
-        <v>43</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>47</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G159" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I159" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s">
-        <v>43</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>47</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G161" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H161" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I161" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>43</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>47</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G163" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I163" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H164" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I164" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G165" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="H165" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I165" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H166" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I166" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G167" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="H167" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I167" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" t="s">
-        <v>43</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>47</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G169" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="H169" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I169" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>43</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>47</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G171" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="H171" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I171" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H172" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I172" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J172" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G173" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H173" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I173" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J173" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
-        <v>43</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>47</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G175" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H175" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I175" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>46</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>50</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G177" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I177" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>46</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>50</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G179" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H179" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I179" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>46</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>50</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G181" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I181" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" t="s">
-        <v>46</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>50</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G183" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H183" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I183" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J183" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H184" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I184" t="s">
-        <v>232</v>
+        <v>36</v>
+      </c>
+      <c r="J184" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
